--- a/game20/web.xlsx
+++ b/game20/web.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>domain</t>
   </si>
@@ -45,43 +45,46 @@
     <t>json</t>
   </si>
   <si>
-    <t>patens.top</t>
+    <t>fulminat.site</t>
+  </si>
+  <si>
+    <t>#c9a87a</t>
+  </si>
+  <si>
+    <t>frisket.fun</t>
+  </si>
+  <si>
+    <t>#ff88ff</t>
+  </si>
+  <si>
+    <t>deflagrate.site</t>
+  </si>
+  <si>
+    <t>#20b2aa</t>
+  </si>
+  <si>
+    <t>titubate.site</t>
+  </si>
+  <si>
+    <t>#98fb98</t>
+  </si>
+  <si>
+    <t>corrade.site</t>
+  </si>
+  <si>
+    <t>#ba55d3</t>
+  </si>
+  <si>
+    <t>paly.sorrel.cloud</t>
+  </si>
+  <si>
+    <t>#bce3fe</t>
+  </si>
+  <si>
+    <t>paly.defenestrate.site</t>
   </si>
   <si>
     <t>#ffa500</t>
-  </si>
-  <si>
-    <t>oliphants.top</t>
-  </si>
-  <si>
-    <t>#bd9683</t>
-  </si>
-  <si>
-    <t>grimoires.top</t>
-  </si>
-  <si>
-    <t>#9d4edd</t>
-  </si>
-  <si>
-    <t>balusters.fun</t>
-  </si>
-  <si>
-    <t>#64ffda</t>
-  </si>
-  <si>
-    <t>heddles.fun</t>
-  </si>
-  <si>
-    <t>#e63946</t>
-  </si>
-  <si>
-    <t>paly.sorrel.cloud</t>
-  </si>
-  <si>
-    <t>#bce3fe</t>
-  </si>
-  <si>
-    <t>paly.defenestrate.site</t>
   </si>
   <si>
     <t>paly.knapweed.fun</t>
@@ -354,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,25 +450,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBD9683"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9D4EDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF64FFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE63946"/>
+        <fgColor rgb="FFC9A87A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF88FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF20B2AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98FB98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBA55D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +810,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,16 +834,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -843,85 +852,85 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,9 +990,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -991,12 +997,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1394,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1484,11 +1493,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="patens.top"/>
-    <hyperlink ref="A3" r:id="rId2" display="oliphants.top"/>
-    <hyperlink ref="A4" r:id="rId3" display="grimoires.top"/>
-    <hyperlink ref="A5" r:id="rId4" display="balusters.fun"/>
-    <hyperlink ref="A6" r:id="rId5" display="heddles.fun"/>
+    <hyperlink ref="A2" r:id="rId1" display="fulminat.site"/>
+    <hyperlink ref="A3" r:id="rId2" display="frisket.fun"/>
+    <hyperlink ref="A4" r:id="rId3" display="deflagrate.site"/>
+    <hyperlink ref="A5" r:id="rId4" display="titubate.site"/>
+    <hyperlink ref="A6" r:id="rId5" display="corrade.site"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1545,7 +1554,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1556,10 +1565,10 @@
     </row>
     <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1568,20 +1577,20 @@
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="I5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:10">
@@ -1589,10 +1598,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="9"/>
       <c r="I6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:10">
@@ -1602,10 +1611,10 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="I7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1615,10 +1624,10 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1628,10 +1637,10 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="I9" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10">
